--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>-200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,37 +893,40 @@
         <v>500</v>
       </c>
       <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>2300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -964,11 +983,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -976,11 +995,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1017,8 +1039,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,13 +1177,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1163,72 +1196,78 @@
         <v>-300</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,10 +1393,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,8 +1600,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1552,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,13 +1703,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -1655,72 +1724,78 @@
         <v>300</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E43" s="3">
         <v>21800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E44" s="3">
         <v>10900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>11500</v>
       </c>
       <c r="O45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E46" s="3">
         <v>42100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>56400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>64000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>85200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>58600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E48" s="3">
         <v>61400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>60800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>55800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>6900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E54" s="3">
         <v>110400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>123200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>127600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>135700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>148800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>153100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>104000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>97300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E57" s="3">
         <v>39000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>60400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E58" s="3">
         <v>20200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E60" s="3">
         <v>76400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>96000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>106900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>113700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>116900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>57000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E61" s="3">
         <v>9400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E62" s="3">
         <v>13100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E66" s="3">
         <v>99000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>127300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>128200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>139200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>149000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>150900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-174900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-171100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-169300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-167000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-164200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-168200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-164800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-162200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-146600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E76" s="3">
         <v>11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3448,22 +3646,22 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CBAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>30600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>37500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>19100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-6900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,43 +907,45 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>500</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
       </c>
       <c r="I12" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -925,8 +953,14 @@
       <c r="P12" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,43 +1003,49 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>2300</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>2300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>900</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>1000</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>1000</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,11 +1088,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>41900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,19 +1244,21 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
@@ -1199,13 +1267,13 @@
         <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>12000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-200</v>
@@ -1214,60 +1282,72 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,10 +1488,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,11 +1725,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1615,11 +1737,17 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,19 +1840,25 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
@@ -1727,13 +1867,13 @@
         <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>200</v>
@@ -1742,60 +1882,72 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>400</v>
       </c>
       <c r="P41" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F43" s="3">
         <v>12200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>21800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>19000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>22200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>21800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>31800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>57500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>30600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>10200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>6000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8700</v>
+        <v>5400</v>
       </c>
       <c r="E44" s="3">
-        <v>10900</v>
+        <v>7400</v>
       </c>
       <c r="F44" s="3">
         <v>8700</v>
       </c>
       <c r="G44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I44" s="3">
         <v>9200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>9600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>10700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>11600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>9800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>18200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>16800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>17300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>24500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>25500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>20700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F46" s="3">
         <v>28500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>42100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>46800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>50400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>56400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>64000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>63700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>75000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>85200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>58600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>40500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>35200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2485,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F48" s="3">
         <v>67100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>61400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>64300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>65400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>63900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>60800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>64300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>65700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>60000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>57300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>55800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>54500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2550,49 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>6900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7300</v>
       </c>
       <c r="I49" s="3">
         <v>7400</v>
       </c>
       <c r="J49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>94200</v>
+      </c>
+      <c r="F54" s="3">
         <v>95600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>110400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>118300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>123200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>127600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>132200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>135700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>148800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>153100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>123700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>104000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>97300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F57" s="3">
         <v>15200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>39000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>42200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>45400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>52600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>61300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>57200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>60400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>65800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>35100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>19200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F58" s="3">
         <v>26800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>20200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>23800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>17800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>20600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>21000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>14600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>14800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>17500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F59" s="3">
         <v>17000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>22700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>22500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>28700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>35400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>36500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>31300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>24600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>60200</v>
+      </c>
+      <c r="F60" s="3">
         <v>59000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>76400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>88700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>85100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>92900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>96000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>106900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>113700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>116900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>79700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>56800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>57000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>9400</v>
       </c>
       <c r="F61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H61" s="3">
         <v>9800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>21100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>20600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>18700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>18000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>20200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>19100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>18700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="E62" s="3">
         <v>13100</v>
       </c>
       <c r="F62" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="G62" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="H62" s="3">
         <v>13700</v>
       </c>
       <c r="I62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>14200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>15000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>82800</v>
+      </c>
+      <c r="F66" s="3">
         <v>82000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>99000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>112200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>120300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>127300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>128200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>139200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>149000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>150900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>110100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>86700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>86500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-174900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-171100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-169300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-167000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-164200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-160300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-168200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-164800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-162200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-150800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-146600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-142800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13600</v>
+        <v>15100</v>
       </c>
       <c r="E76" s="3">
         <v>11400</v>
       </c>
       <c r="F76" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +4024,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
@@ -3649,31 +4047,37 @@
         <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>600</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4405,49 @@
         <v>-500</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,83 +4875,95 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1800</v>
       </c>
       <c r="N102" s="3">
         <v>1500</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="P102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CBAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
-        <v>6700</v>
-      </c>
       <c r="F9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
       <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-200</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-6900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,10 +932,10 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
@@ -930,37 +944,40 @@
         <v>500</v>
       </c>
       <c r="I12" s="3">
+        <v>500</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
       </c>
       <c r="P12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,22 +1026,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>400</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1032,11 +1052,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1044,11 +1064,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1117,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,13 +1289,13 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1273,81 +1307,87 @@
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,10 +1540,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1731,8 +1792,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1743,11 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,13 +1925,13 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1873,81 +1943,87 @@
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E43" s="3">
         <v>15300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>31800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>5400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>11500</v>
       </c>
       <c r="R45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E46" s="3">
         <v>27500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>42100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>58600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2596,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E48" s="3">
         <v>64900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>60000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>57300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>54500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2556,43 +2667,46 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>6900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E54" s="3">
         <v>92400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>127600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>135700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>148800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>153100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>123700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>104000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>97300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,208 +3011,221 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E58" s="3">
         <v>33100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E59" s="3">
         <v>16200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>24600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E60" s="3">
         <v>64200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>96000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>106900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>113700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>116900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>57000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,99 +3233,105 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>9400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="E62" s="3">
         <v>13100</v>
       </c>
       <c r="F62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G62" s="3">
         <v>13400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E66" s="3">
         <v>77300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>99000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>127300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>128200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>139200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>149000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>150900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3610,49 +3784,52 @@
         <v>-178500</v>
       </c>
       <c r="E72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-177300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-174900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-171100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-169300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-167000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-164200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-160300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-168200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-164800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-162200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-146600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-142800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E76" s="3">
         <v>15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,19 +4224,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
@@ -4053,22 +4252,22 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
       </c>
       <c r="M83" s="3">
+        <v>600</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>CBAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-200</v>
       </c>
       <c r="J10" s="3">
         <v>-200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-6900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,22 +935,23 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
@@ -947,37 +960,40 @@
         <v>500</v>
       </c>
       <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
       </c>
       <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,25 +1045,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1055,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1067,11 +1086,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1120,8 +1142,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E17" s="3">
         <v>10200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,25 +1312,26 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
@@ -1310,84 +1343,90 @@
         <v>-300</v>
       </c>
       <c r="L20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,10 +1588,13 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1855,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1807,11 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,25 +1982,28 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
@@ -1946,84 +2015,90 @@
         <v>300</v>
       </c>
       <c r="L32" s="3">
+        <v>300</v>
+      </c>
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,84 +2313,88 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2334,243 +2423,258 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E43" s="3">
         <v>22300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>22200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>17300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>11500</v>
       </c>
       <c r="S45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E46" s="3">
         <v>34700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>85200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>58600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2599,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E48" s="3">
         <v>67400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>57300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>54500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2670,43 +2780,46 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>6900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E54" s="3">
         <v>102100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>94200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>123200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>127600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>135700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>148800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>153100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>97300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E57" s="3">
         <v>22400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>60400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>33500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E59" s="3">
         <v>15600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>24600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E60" s="3">
         <v>71500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>96000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>106900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>113700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>116900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>57000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3236,102 +3378,108 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>9400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E62" s="3">
         <v>13500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>13100</v>
       </c>
       <c r="F62" s="3">
         <v>13100</v>
       </c>
       <c r="G62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H62" s="3">
         <v>13400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E66" s="3">
         <v>85100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>77300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>99000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>112200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>120300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>127300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>128200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>139200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>149000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>150900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-178500</v>
+        <v>-182800</v>
       </c>
       <c r="E72" s="3">
         <v>-178500</v>
       </c>
       <c r="F72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-177300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-174900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-171100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-169300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-167000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-164200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-160300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-168200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-164800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-162200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-150800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-146600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-142800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E76" s="3">
         <v>17000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,22 +4422,23 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
@@ -4255,22 +4453,22 @@
         <v>700</v>
       </c>
       <c r="L83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
       </c>
       <c r="N83" s="3">
+        <v>600</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E8" s="3">
         <v>15400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>13600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-200</v>
       </c>
       <c r="K10" s="3">
         <v>-200</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,16 +959,16 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
@@ -963,37 +977,40 @@
         <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,28 +1065,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>5100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1077,11 +1097,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1089,11 +1109,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1145,8 +1168,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E17" s="3">
         <v>21400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,28 +1346,29 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
       </c>
       <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
@@ -1346,87 +1380,93 @@
         <v>-300</v>
       </c>
       <c r="M20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,10 +1637,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1858,8 +1919,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1870,11 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,28 +2052,31 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
       </c>
       <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
@@ -2018,87 +2088,93 @@
         <v>300</v>
       </c>
       <c r="M32" s="3">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,72 +2400,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E41" s="3">
         <v>11700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -2396,8 +2486,8 @@
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2426,240 +2516,255 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E43" s="3">
         <v>36000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E44" s="3">
         <v>5300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>17300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>11500</v>
       </c>
       <c r="T45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E46" s="3">
         <v>63200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>42100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>46800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>85200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>58600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -2676,8 +2781,8 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E48" s="3">
         <v>78700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>64300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>60800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>64300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>65700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>55800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>54500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2783,43 +2894,46 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>6900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E54" s="3">
         <v>142800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>94200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>110400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>123200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>132200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>135700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>148800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>153100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>97300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3272,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28500</v>
+        <v>25300</v>
       </c>
       <c r="E57" s="3">
-        <v>22400</v>
+        <v>28400</v>
       </c>
       <c r="F57" s="3">
-        <v>14900</v>
+        <v>19300</v>
       </c>
       <c r="G57" s="3">
         <v>14800</v>
       </c>
       <c r="H57" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I57" s="3">
-        <v>39000</v>
+        <v>15100</v>
       </c>
       <c r="J57" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K57" s="3">
         <v>42200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>52600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>60400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30200</v>
+        <v>49100</v>
       </c>
       <c r="E59" s="3">
-        <v>15600</v>
+        <v>30400</v>
       </c>
       <c r="F59" s="3">
-        <v>16200</v>
+        <v>18700</v>
       </c>
       <c r="G59" s="3">
-        <v>21100</v>
+        <v>16300</v>
       </c>
       <c r="H59" s="3">
-        <v>17000</v>
+        <v>21200</v>
       </c>
       <c r="I59" s="3">
         <v>17200</v>
       </c>
       <c r="J59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K59" s="3">
         <v>22700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>24600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E60" s="3">
         <v>73700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>76400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>96000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>106900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>113700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>116900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>57000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,105 +3524,111 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>9400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E62" s="3">
         <v>16700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>13100</v>
       </c>
       <c r="G62" s="3">
         <v>13100</v>
       </c>
       <c r="H62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I62" s="3">
         <v>13400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E66" s="3">
         <v>90400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>85100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>77300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>99000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>112200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>120300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>127300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>128200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>139200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>149000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>150900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-182800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-178500</v>
       </c>
       <c r="F72" s="3">
         <v>-178500</v>
       </c>
       <c r="G72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-177300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-174900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-171100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-169300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-167000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-164200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-160300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-168200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-164800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-162200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-150800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-146600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-142800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E76" s="3">
         <v>52400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,25 +4621,26 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>600</v>
       </c>
       <c r="G83" s="3">
         <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
@@ -4456,22 +4655,22 @@
         <v>700</v>
       </c>
       <c r="M83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N83" s="3">
         <v>600</v>
       </c>
       <c r="O83" s="3">
+        <v>600</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E100" s="3">
         <v>28200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E102" s="3">
         <v>12800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>CBAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,296 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>30600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>17800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>6300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>5400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>7100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>37500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>19100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>7800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-6900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,58 +976,60 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
       </c>
       <c r="L12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
       </c>
       <c r="P12" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>500</v>
+      </c>
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>500</v>
       </c>
       <c r="T12" s="3">
         <v>400</v>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>400</v>
+      </c>
+      <c r="W12" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,58 +1102,64 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>900</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>900</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>1000</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>1000</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1171,11 +1217,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>10</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>10</v>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F17" s="3">
         <v>9400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>13100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>41900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>21900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>10000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,34 +1413,36 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>29700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
-      </c>
       <c r="K20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-300</v>
@@ -1383,13 +1451,13 @@
         <v>-300</v>
       </c>
       <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P20" s="3">
         <v>12000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
@@ -1398,75 +1466,87 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F21" s="3">
         <v>30300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-10900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1604,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>7900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-11400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,10 +1732,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>29600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>29600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-11400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1922,11 +2044,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1934,11 +2056,17 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,34 +2189,40 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-29700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
-      </c>
       <c r="K32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>300</v>
@@ -2091,13 +2231,13 @@
         <v>300</v>
       </c>
       <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-12000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
@@ -2106,75 +2246,87 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>200</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>29600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>29600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F41" s="3">
         <v>65100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1600</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>400</v>
+      </c>
+      <c r="W41" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2469,13 +2649,13 @@
         <v>800</v>
       </c>
       <c r="E42" s="3">
+        <v>700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>800</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -2489,11 +2669,11 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2519,258 +2699,288 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F43" s="3">
         <v>28700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>36000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>22300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>15300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>14900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>21800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>19000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>28600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>31800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>44300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>57500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>30600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>10200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>6000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F44" s="3">
         <v>6500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>7400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>10900</v>
       </c>
       <c r="K44" s="3">
         <v>8700</v>
       </c>
       <c r="L44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N44" s="3">
         <v>9200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>9600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>9100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>11600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>9800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>18200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>16800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>17300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F45" s="3">
         <v>18800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>24500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>25500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>20700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>17800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>9700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>11700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>11500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>93400</v>
+      </c>
+      <c r="F46" s="3">
         <v>119900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>63200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>34700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>27500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>28300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>28500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>42100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>46800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>50400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>56400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>64000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>63700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>75000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>85200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>58600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>40500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>35200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F47" s="3">
         <v>1900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -2784,11 +2994,11 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2814,67 +3024,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>93800</v>
+      </c>
+      <c r="F48" s="3">
         <v>82100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>78700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>67400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>64900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>65900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>67100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>61400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>64300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>65400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>63900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>60800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>64300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>65700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>60000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>57300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>55800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>54500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2897,43 +3119,49 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>6900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>7300</v>
       </c>
       <c r="N49" s="3">
         <v>7400</v>
       </c>
       <c r="O49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>8100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>7800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>7700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>7600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,31 +3284,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>190700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>192200</v>
+      </c>
+      <c r="F54" s="3">
         <v>204000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>142800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>102100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>92400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>94200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>95600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>110400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>118300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>123200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>127600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>132200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>135700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>148800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>153100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>123700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>104000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>97300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,244 +3533,270 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F57" s="3">
         <v>25300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>28400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>19300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>14800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>14700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>15100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>38900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>42200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>45400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>52600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>61300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>57200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>60400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>65800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>35100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>19200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>14900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>14800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>33500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>33100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>24300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>26800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>23800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>17900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>17800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>20600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>21000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>17800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>14600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>13300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>14800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>17500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F59" s="3">
         <v>49100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>21200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>17200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>22700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>22500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>28700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>35400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>36500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>31300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>22800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>24600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>72800</v>
+      </c>
+      <c r="F60" s="3">
         <v>89300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>73700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>71500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>64200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>60200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>59000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>76400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>88700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>85100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>92900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>96000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>106900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>113700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>116900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>79700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>56800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>57000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3527,108 +3813,120 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>9400</v>
       </c>
       <c r="K61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="L61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M61" s="3">
         <v>9800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>21100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>20600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>18700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>20200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>19500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>19100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>18700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>18400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F62" s="3">
         <v>16800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>13100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>13400</v>
       </c>
       <c r="J62" s="3">
         <v>13100</v>
       </c>
       <c r="K62" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="L62" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="M62" s="3">
         <v>13700</v>
       </c>
       <c r="N62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P62" s="3">
         <v>13500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>14500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>11400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>11200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>11100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106100</v>
+        <v>68500</v>
       </c>
       <c r="E66" s="3">
         <v>90400</v>
       </c>
       <c r="F66" s="3">
+        <v>106100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>90400</v>
+      </c>
+      <c r="H66" s="3">
         <v>85100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>77300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>82800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>82000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>99000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>112200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>120300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>127300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>128200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>139200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>149000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>150900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>110100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>86700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>86500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-150400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-153100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-182800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-178500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-178500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-177300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-174900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-171100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-169300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-167000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-164200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-160300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-168200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-164800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-162200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-150800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-146600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-142800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>101800</v>
+      </c>
+      <c r="F76" s="3">
         <v>97900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>52400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>13600</v>
       </c>
       <c r="J76" s="3">
         <v>11400</v>
       </c>
       <c r="K76" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="M76" s="3">
         <v>6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>13500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>29600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,31 +5018,33 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
@@ -4658,31 +5056,37 @@
         <v>700</v>
       </c>
       <c r="N83" s="3">
+        <v>700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>700</v>
+      </c>
+      <c r="P83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>500</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
       </c>
       <c r="R83" s="3">
+        <v>500</v>
+      </c>
+      <c r="S83" s="3">
+        <v>600</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5498,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-500</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-10100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +6039,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F100" s="3">
         <v>65300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>28200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>5400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-1700</v>
       </c>
       <c r="F101" s="3">
         <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
+        <v>300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F102" s="3">
         <v>60800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>12800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-1800</v>
       </c>
       <c r="S102" s="3">
         <v>1500</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="U102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E9" s="3">
         <v>8100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>37500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-200</v>
       </c>
       <c r="N10" s="3">
         <v>-200</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,34 +990,35 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
@@ -1014,37 +1027,40 @@
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>800</v>
-      </c>
-      <c r="S12" s="3">
-        <v>400</v>
       </c>
       <c r="T12" s="3">
         <v>400</v>
       </c>
       <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,37 +1124,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1146,11 +1165,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1158,11 +1177,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>10</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>10</v>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,37 +1447,38 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>23200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-300</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
       </c>
       <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-300</v>
@@ -1457,96 +1490,102 @@
         <v>-300</v>
       </c>
       <c r="P20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,78 +1649,84 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1738,10 +1783,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2050,8 +2110,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2062,11 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,37 +2261,40 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-23200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>300</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
       </c>
       <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>300</v>
@@ -2237,96 +2306,102 @@
         <v>300</v>
       </c>
       <c r="P32" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>20000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>20000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2649,16 +2738,16 @@
         <v>800</v>
       </c>
       <c r="E42" s="3">
+        <v>800</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -2675,8 +2764,8 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2705,285 +2794,300 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E43" s="3">
         <v>28300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E44" s="3">
         <v>9200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>17300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11700</v>
-      </c>
-      <c r="V45" s="3">
-        <v>11500</v>
       </c>
       <c r="W45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E46" s="3">
         <v>59600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>63200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>64000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>63700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>75000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>85200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>58600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>40500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E47" s="3">
         <v>22000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -3000,8 +3104,8 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3030,78 +3134,84 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E48" s="3">
         <v>100700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>93800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>78700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>64300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>63900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>64300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>65700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>57300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>55800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>54500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3125,43 +3235,46 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>6900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,19 +3406,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
@@ -3316,8 +3435,8 @@
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>262600</v>
+      </c>
+      <c r="E54" s="3">
         <v>190700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>204000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>102100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>94200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>132200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>135700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>148800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>153100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>123700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>97300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,268 +3664,281 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E57" s="3">
         <v>21100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>42200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>61300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>60400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>14900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E59" s="3">
         <v>27700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>24600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E60" s="3">
         <v>49400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>72800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>60200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>88700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>85100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>96000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>106900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>113700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>116900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>56800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>57000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3819,114 +3961,120 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>9400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>13100</v>
       </c>
       <c r="J62" s="3">
         <v>13100</v>
       </c>
       <c r="K62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L62" s="3">
         <v>13400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E66" s="3">
         <v>68500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>90400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>106100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>90400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>85100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>77300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>120300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>127300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>128200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>139200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>149000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>150900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-130400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-153100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-182800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-178500</v>
       </c>
       <c r="I72" s="3">
         <v>-178500</v>
       </c>
       <c r="J72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-177300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-174900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-171100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-169300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-167000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-164200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-160300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-168200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-164800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-162200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-150800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-146600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-142800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E76" s="3">
         <v>122200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>20000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,34 +5217,35 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
       </c>
       <c r="K83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
@@ -5062,22 +5260,22 @@
         <v>700</v>
       </c>
       <c r="P83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
       </c>
       <c r="R83" s="3">
+        <v>600</v>
+      </c>
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>65300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>300</v>
       </c>
       <c r="G101" s="3">
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-34800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>80200</v>
+      </c>
+      <c r="F8" s="3">
         <v>27800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>15400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>30600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>17800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F9" s="3">
         <v>26600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>8100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>13600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>7100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>37500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>19100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>7800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>4100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1200</v>
+        <v>6000</v>
       </c>
       <c r="E10" s="3">
-        <v>1500</v>
+        <v>5700</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-6900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-1500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,67 +1017,69 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
       </c>
       <c r="O12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>600</v>
+      </c>
+      <c r="T12" s="3">
+        <v>500</v>
+      </c>
+      <c r="U12" s="3">
         <v>800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
-      </c>
-      <c r="V12" s="3">
-        <v>500</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,67 +1161,73 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>900</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>900</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>1000</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>1000</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,11 +1294,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>10</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>10</v>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>81500</v>
+      </c>
+      <c r="F17" s="3">
         <v>33600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>21400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>9600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>41900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>21900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>10000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,43 +1514,45 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>23200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>29700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
-      </c>
       <c r="N20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-300</v>
@@ -1493,13 +1561,13 @@
         <v>-300</v>
       </c>
       <c r="Q20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S20" s="3">
         <v>12000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
@@ -1508,84 +1576,96 @@
         <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>30300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>8600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-10900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,88 +1732,100 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>29600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>7900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-11400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-7700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1786,10 +1878,16 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>29600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-11400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>29600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-11400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,11 +2235,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2125,11 +2247,17 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,43 +2398,49 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-23200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-29700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
-      </c>
       <c r="N32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>300</v>
@@ -2309,13 +2449,13 @@
         <v>300</v>
       </c>
       <c r="Q32" s="3">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3">
+        <v>300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-12000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>200</v>
@@ -2324,84 +2464,96 @@
         <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>200</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>29600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>7900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-11400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>29600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>7900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-11400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,99 +2833,107 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>33300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>65100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1600</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="W41" s="3">
-        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E42" s="3">
         <v>800</v>
       </c>
       <c r="F42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
       </c>
       <c r="H42" s="3">
+        <v>700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>800</v>
+      </c>
+      <c r="J42" s="3">
         <v>200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -2767,11 +2947,11 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2797,303 +2977,333 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>60500</v>
+      </c>
+      <c r="F43" s="3">
         <v>60000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>28300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>28500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>28700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>36000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>22300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>15300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>12200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>19000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>22200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>21800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>28600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>31800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>44300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>57500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>30600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>10200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>6000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F44" s="3">
         <v>30100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>6500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>10900</v>
       </c>
       <c r="N44" s="3">
         <v>8700</v>
       </c>
       <c r="O44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="P44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q44" s="3">
         <v>9200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>9600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>9100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>10700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>11600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>9800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>18200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>16800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>17300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F45" s="3">
         <v>24500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>18800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>18700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>24500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>25500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>20700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>17800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>9700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>11700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>11500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F46" s="3">
         <v>122800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>59600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>93400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>119900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>63200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>34700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>27500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>28300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>28500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>42100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>46800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>50400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>56400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>64000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>63700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>75000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>85200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>58600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>40500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>35200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>22000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -3107,11 +3317,11 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3137,88 +3347,100 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>132300</v>
+      </c>
+      <c r="F48" s="3">
         <v>133200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>100700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>93800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>82100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>78700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>67400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>64900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>65900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>67100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>61400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>64300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>65400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>63900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>60800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>64300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>65700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>60000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>57300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>55800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>54500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3600</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
@@ -3238,43 +3460,49 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>7300</v>
       </c>
       <c r="Q49" s="3">
         <v>7400</v>
       </c>
       <c r="R49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T49" s="3">
         <v>7700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>7900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>7800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>7700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3643,31 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
@@ -3438,11 +3678,11 @@
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>278800</v>
+      </c>
+      <c r="F54" s="3">
         <v>262600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>190700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>192200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>204000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>142800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>102100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>92400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>94200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>95600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>110400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>118300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>123200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>127600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>132200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>135700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>148800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>153100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>123700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>104000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>97300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,280 +3925,306 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>79300</v>
+      </c>
+      <c r="F57" s="3">
         <v>65400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>21100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>24300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>25300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>28400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>19300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>14800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>15100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>38900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>42200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>45400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>52600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>61300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>57200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>60400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>65800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>35100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>19200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>14900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F58" s="3">
         <v>13500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>33500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>33100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>24300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>20200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>23800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>17900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>17800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>20600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>21000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>17800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>14600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>13300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>14800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>17500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F59" s="3">
         <v>33900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>27700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>47700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>49100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>21200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>17400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>21800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>22500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>14000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>28700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>35400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>36500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>31300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>22800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>24600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>126800</v>
+      </c>
+      <c r="F60" s="3">
         <v>112800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>49400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>72800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>89300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>73700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>71500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>64200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>60200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>59000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>76400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>88700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>85100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>92900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>96000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>106900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>113700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>116900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>79700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>56800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>57000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3964,117 +4250,129 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>9400</v>
       </c>
       <c r="N61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="O61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="P61" s="3">
         <v>9800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>21100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>20600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>18700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>18000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>20200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>19500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>19100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>18700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>18400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F62" s="3">
         <v>9000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>17600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>16800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>13100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>13400</v>
       </c>
       <c r="M62" s="3">
         <v>13100</v>
       </c>
       <c r="N62" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="O62" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="P62" s="3">
         <v>13700</v>
       </c>
       <c r="Q62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>13700</v>
+      </c>
+      <c r="S62" s="3">
         <v>13500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>15000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>14500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>11200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>11100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>144600</v>
+      </c>
+      <c r="F66" s="3">
         <v>129300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>68500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>90400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>106100</v>
       </c>
       <c r="H66" s="3">
         <v>90400</v>
       </c>
       <c r="I66" s="3">
+        <v>106100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K66" s="3">
         <v>85100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>77300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>82800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>82000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>99000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>112200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>120300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>127300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>128200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>139200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>149000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>150900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>110100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>86700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>86500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-121300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-130400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-150400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-153100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-182800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-178500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-178500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-177300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-174900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-171100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-169300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-167000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-164200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-160300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-168200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-164800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-162200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-150800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-146600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-142800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>134200</v>
+      </c>
+      <c r="F76" s="3">
         <v>133300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>122200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>101800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>97900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>11400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>13600</v>
       </c>
       <c r="M76" s="3">
         <v>11400</v>
       </c>
       <c r="N76" s="3">
+        <v>13600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>13500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>17300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>29600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>7900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-11400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,40 +5614,42 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>700</v>
       </c>
       <c r="N83" s="3">
         <v>700</v>
@@ -5263,31 +5661,37 @@
         <v>700</v>
       </c>
       <c r="Q83" s="3">
+        <v>700</v>
+      </c>
+      <c r="R83" s="3">
+        <v>700</v>
+      </c>
+      <c r="S83" s="3">
         <v>600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
       </c>
       <c r="U83" s="3">
+        <v>500</v>
+      </c>
+      <c r="V83" s="3">
+        <v>600</v>
+      </c>
+      <c r="W83" s="3">
         <v>400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>300</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>12700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-4300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-500</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F94" s="3">
         <v>9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-10100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-6000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6776,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-14100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>65300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>28200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>6700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>5400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1700</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="K101" s="3">
+        <v>300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F102" s="3">
         <v>8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-34800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-29100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>60800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>12800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>6100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
-      </c>
-      <c r="T102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-1800</v>
       </c>
       <c r="V102" s="3">
         <v>1500</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="X102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E8" s="3">
         <v>56300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E9" s="3">
         <v>50300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>37500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>6000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-200</v>
       </c>
       <c r="Q10" s="3">
         <v>-200</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-1800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-6900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,43 +1032,44 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>500</v>
       </c>
       <c r="K12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
@@ -1064,37 +1078,40 @@
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>500</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>800</v>
-      </c>
-      <c r="V12" s="3">
-        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
       </c>
       <c r="X12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,46 +1184,49 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1214,11 +1234,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1226,11 +1246,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1323,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>10</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>10</v>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E17" s="3">
         <v>56200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>41900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,46 +1549,47 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>23200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-300</v>
       </c>
       <c r="L20" s="3">
         <v>-300</v>
       </c>
       <c r="M20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
@@ -1567,105 +1601,111 @@
         <v>-300</v>
       </c>
       <c r="S20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,97 +1778,103 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1884,10 +1930,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2241,8 +2302,8 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2253,11 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,46 +2471,49 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-23200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>300</v>
       </c>
       <c r="L32" s="3">
         <v>300</v>
       </c>
       <c r="M32" s="3">
+        <v>300</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
@@ -2455,105 +2525,111 @@
         <v>300</v>
       </c>
       <c r="S32" s="3">
+        <v>300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,90 +2921,94 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>800</v>
       </c>
       <c r="F42" s="3">
         <v>800</v>
@@ -2927,16 +3017,16 @@
         <v>800</v>
       </c>
       <c r="H42" s="3">
+        <v>800</v>
+      </c>
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
@@ -2953,8 +3043,8 @@
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2983,304 +3073,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E43" s="3">
         <v>38200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>36000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>31800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>57500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>30600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>10200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E44" s="3">
         <v>55300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>18200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>17300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E45" s="3">
         <v>38600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>17800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11700</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>11500</v>
       </c>
       <c r="Z45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E46" s="3">
         <v>137300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>140000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>122800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>93400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>64000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>63700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>75000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>85200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>58600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>40500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>35200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3288,25 +3393,25 @@
         <v>1200</v>
       </c>
       <c r="E47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
@@ -3323,8 +3428,8 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3353,97 +3458,103 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E48" s="3">
         <v>127000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>132300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>133200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>93800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>82100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>78700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>67100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>61400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>65400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>60800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>64300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>65700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>60000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>57300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>55800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>54500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3600</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
@@ -3466,43 +3577,46 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>6900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,28 +3766,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
@@ -3684,8 +3804,8 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>251200</v>
+      </c>
+      <c r="E54" s="3">
         <v>270000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>262600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>192200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>204000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>142800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>94200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>110400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>127600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>132200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>135700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>148800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>153100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>123700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>104000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>97300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,304 +4057,317 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E57" s="3">
         <v>80500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>61300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>57200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>60400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>65800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>14900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E58" s="3">
         <v>17600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>23800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>20600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>21000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>14800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E59" s="3">
         <v>27600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>36500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>31300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>24600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E60" s="3">
         <v>125700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>126800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>112800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>89300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>88700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>92900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>96000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>106900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>113700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>116900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>79700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>56800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>57000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4256,123 +4399,129 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>9400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>13100</v>
       </c>
       <c r="M62" s="3">
         <v>13100</v>
       </c>
       <c r="N62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="O62" s="3">
         <v>13400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E66" s="3">
         <v>142100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>144600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>129300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>106100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>82000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>120300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>127300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>128200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>139200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>149000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>150900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>110100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5162,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5000,73 +5174,76 @@
         <v>-120000</v>
       </c>
       <c r="E72" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-120800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-121300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-130400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-153100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-182800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-178500</v>
       </c>
       <c r="L72" s="3">
         <v>-178500</v>
       </c>
       <c r="M72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-177300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-174900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-171100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-169300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-167000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-164200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-160300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-168200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-164800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-162200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-150800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-146600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-142800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E76" s="3">
         <v>127900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>134200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,43 +5814,44 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>600</v>
       </c>
       <c r="N83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
@@ -5667,22 +5866,22 @@
         <v>700</v>
       </c>
       <c r="S83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T83" s="3">
         <v>600</v>
       </c>
       <c r="U83" s="3">
+        <v>600</v>
+      </c>
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>400</v>
-      </c>
-      <c r="X83" s="3">
-        <v>300</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6393,73 +6623,76 @@
         <v>-3600</v>
       </c>
       <c r="E94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
       </c>
       <c r="J101" s="3">
+        <v>300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>10700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-34800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>60800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1500</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -6389,7 +6389,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3400</v>
+        <v>-3700</v>
       </c>
       <c r="E91" s="3">
         <v>-3600</v>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>CBAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,385 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>54500</v>
+      </c>
+      <c r="G8" s="3">
         <v>57700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>56300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>80200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>27800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>9600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>15400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>10600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>6900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>8100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>4300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>5200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>9500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>6100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>3300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>30600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>17800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>6300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AC8" s="3">
         <v>3700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50200</v>
+      </c>
+      <c r="G9" s="3">
         <v>54000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>50300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>74500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>26600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>8100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>4700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>7300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>13600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>9000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>6300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>5400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>9500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>7400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>7100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>3700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>37500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>19100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>7800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AC9" s="3">
         <v>4100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AD9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>6000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>5700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-1800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>-1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>-400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>-6900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB10" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC10" s="3">
         <v>-400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AD10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,85 +1071,97 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>500</v>
       </c>
       <c r="T12" s="3">
+        <v>500</v>
+      </c>
+      <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
+        <v>500</v>
+      </c>
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Y12" s="3">
         <v>800</v>
-      </c>
-      <c r="W12" s="3">
-        <v>400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>500</v>
       </c>
       <c r="Z12" s="3">
         <v>400</v>
       </c>
       <c r="AA12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,58 +1237,67 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>800</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
+        <v>800</v>
+      </c>
+      <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>2300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>900</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1246,11 +1305,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>900</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1000</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1258,14 +1317,23 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>1000</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1326,14 +1394,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>10</v>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>10</v>
@@ -1341,8 +1409,17 @@
       <c r="AA15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1444,183 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>63300</v>
+      </c>
+      <c r="G17" s="3">
         <v>59200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>56200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>81500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>33600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>21400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>10200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>9600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>9700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>9300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>5700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>41900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>21900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
         <v>10000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>5800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AD17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q18" s="3">
         <v>-2000</v>
       </c>
       <c r="R18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-11300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AC18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AD18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,162 +1648,183 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>23200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>29700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
       </c>
       <c r="Q20" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-300</v>
       </c>
       <c r="T20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>30300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>8600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>-2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>-10900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AB21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AC21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AD21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,109 +1900,127 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>29600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>7900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-11400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AD23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-7700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1933,10 +2070,19 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2158,189 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>29600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-11400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AD26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>29600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-3400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-11400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2416,17 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2305,23 +2487,32 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2588,17 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2674,189 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-23200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-29700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
       </c>
       <c r="Q32" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>300</v>
       </c>
       <c r="T32" s="3">
+        <v>300</v>
+      </c>
+      <c r="U32" s="3">
+        <v>300</v>
+      </c>
+      <c r="V32" s="3">
+        <v>300</v>
+      </c>
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>29600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>7900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-3400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-11400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2932,194 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>29600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>7900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-3400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-11400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3147,11 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,120 +3179,132 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>33300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>65100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>11700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1600</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>1600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AB41" s="3">
         <v>2000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AC41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AD41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>800</v>
-      </c>
-      <c r="E42" s="3">
-        <v>900</v>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
       </c>
       <c r="H42" s="3">
+        <v>900</v>
+      </c>
+      <c r="I42" s="3">
         <v>800</v>
-      </c>
-      <c r="I42" s="3">
-        <v>700</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
       </c>
       <c r="K42" s="3">
+        <v>800</v>
+      </c>
+      <c r="L42" s="3">
+        <v>700</v>
+      </c>
+      <c r="M42" s="3">
+        <v>800</v>
+      </c>
+      <c r="N42" s="3">
         <v>200</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>10</v>
@@ -3046,14 +3315,14 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3076,351 +3345,396 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>37900</v>
+      </c>
+      <c r="G43" s="3">
         <v>33000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>38200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>60500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>60000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>28300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>28500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>28700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>36000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>22300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>15300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>14900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>12200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>21800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>19000</v>
-      </c>
-      <c r="R43" s="3">
-        <v>22200</v>
       </c>
       <c r="S43" s="3">
         <v>21800</v>
       </c>
       <c r="T43" s="3">
+        <v>19000</v>
+      </c>
+      <c r="U43" s="3">
+        <v>22200</v>
+      </c>
+      <c r="V43" s="3">
+        <v>21800</v>
+      </c>
+      <c r="W43" s="3">
         <v>28600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>31800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>44300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Z43" s="3">
         <v>57500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>30600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AB43" s="3">
         <v>10200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AC43" s="3">
         <v>6000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AD43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>49400</v>
+      </c>
+      <c r="G44" s="3">
         <v>52700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>55300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>41900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>30100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>9200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>9700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>6500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>5300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>5400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>7400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>8700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>10900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>8700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>9200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>9600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>9100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="X44" s="3">
         <v>10700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Y44" s="3">
         <v>11600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Z44" s="3">
         <v>9800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="AA44" s="3">
         <v>18200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AB44" s="3">
         <v>16800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AC44" s="3">
         <v>17300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AD44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>31800</v>
+      </c>
+      <c r="G45" s="3">
         <v>38700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>38600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>31200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>24500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>21100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>18800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>5900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>9200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>18800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>18700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>24500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>25500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>20700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="3">
         <v>17800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Z45" s="3">
         <v>16200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="AA45" s="3">
         <v>9700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AB45" s="3">
         <v>11700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AC45" s="3">
         <v>11500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AD45" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>125700</v>
+      </c>
+      <c r="G46" s="3">
         <v>129200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>137300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>140000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>122800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>59600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>93400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>119900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>63200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>34700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>27500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>28300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>28500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>42100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>46800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>50400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>56400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>64000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>63700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>75000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>85200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>58600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AB46" s="3">
         <v>40500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AC46" s="3">
         <v>35200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AD46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>900</v>
+      </c>
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>22000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -3431,14 +3745,14 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3461,109 +3775,127 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>117100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>113600</v>
+      </c>
+      <c r="G48" s="3">
         <v>116600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>127000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>132300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>133200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>100700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>93800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>82100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>78700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>67400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>64900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>65900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>67100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>61400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>64300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>65400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>63900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>60800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>64300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>65700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>60000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>57300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AB48" s="3">
         <v>55800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AC48" s="3">
         <v>54500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AD48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>3500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>3600</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
@@ -3580,43 +3912,52 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>6900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>7200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>7400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>7300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>7400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>7700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Y49" s="3">
         <v>8100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Z49" s="3">
         <v>7900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AA49" s="3">
         <v>7800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AB49" s="3">
         <v>7700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AC49" s="3">
         <v>7600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AD49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +4033,17 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,37 +4119,46 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>10</v>
@@ -3807,14 +4166,14 @@
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3846,8 +4205,17 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4291,103 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>252200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>244000</v>
+      </c>
+      <c r="G54" s="3">
         <v>251200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>270000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>278800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>262600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>190700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>192200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>204000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>142800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>102100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>92400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>94200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>95600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>110400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>118300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>123200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>127600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>132200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>135700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>148800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>153100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>123700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AB54" s="3">
         <v>104000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AC54" s="3">
         <v>97300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AD54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4415,11 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,316 +4447,355 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>77800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>67500</v>
+      </c>
+      <c r="G57" s="3">
         <v>70500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>80500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>79300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>65400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>21100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>24300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>25300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>28400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>19300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>14800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>14700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>15100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>38900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>42200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>45400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>52600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>61300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>57200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>60400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>65800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>35100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AB57" s="3">
         <v>19200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AC57" s="3">
         <v>14900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AD57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G58" s="3">
         <v>22200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>17600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>15400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>13500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>14800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>15000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>33500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>33100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>24300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>26800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>20200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>23800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>17900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>17800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>20600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>21000</v>
       </c>
       <c r="V58" s="3">
         <v>17800</v>
       </c>
       <c r="W58" s="3">
+        <v>20600</v>
+      </c>
+      <c r="X58" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>17800</v>
+      </c>
+      <c r="Z58" s="3">
         <v>14600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>13300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AB58" s="3">
         <v>14800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AC58" s="3">
         <v>17500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AD58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G59" s="3">
         <v>23100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>27600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>32100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>33900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>27700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>47700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>49100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>30400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>18700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>16300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>21200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>17200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>17400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>22700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>21800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>22500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>14000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>28700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>35400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>36500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>31300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AB59" s="3">
         <v>22800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AC59" s="3">
         <v>24600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AD59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>121600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>111900</v>
+      </c>
+      <c r="G60" s="3">
         <v>115900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>125700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>126800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>112800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>49400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>72800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>89300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>73700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>71500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>64200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>60200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>59000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>76400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>88700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>85100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>92900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>96000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>106900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>113700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>116900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>79700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>56800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>57000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4402,126 +4830,144 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>9500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>9400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>9800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>21100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>20600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>18700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>18000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="Y61" s="3">
         <v>20200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Z61" s="3">
         <v>19500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="AA61" s="3">
         <v>19100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AB61" s="3">
         <v>18700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AC61" s="3">
         <v>18400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AD61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H62" s="3">
         <v>8300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>10000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>9000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>19100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>17600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>16800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>16700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>13500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>13100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>13100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>13400</v>
       </c>
       <c r="P62" s="3">
         <v>13100</v>
       </c>
       <c r="Q62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>13400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="T62" s="3">
         <v>13700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>14000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>13700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>13500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>14200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>15000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>14500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>11400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AB62" s="3">
         <v>11200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AC62" s="3">
         <v>11100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AD62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +5043,17 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +5129,17 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5215,103 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>135400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>126500</v>
+      </c>
+      <c r="G66" s="3">
         <v>130400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>142100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>144600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>129300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>68500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>90400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>106100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>90400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>85100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>77300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>82800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>82000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>99000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>112200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>120300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>127300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>128200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>139200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>149000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>150900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>110100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>86700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>86500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5339,11 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5419,17 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5505,17 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5591,17 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5677,103 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-134700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-130700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-120000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-120000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-120800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-121300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-130400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-150400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-153100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-182800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-178500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-178500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-177300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-174900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-171100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-169300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-167000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-164200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-160300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-168200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-164800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-162200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-150800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-146600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-142800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5849,17 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5935,17 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +6021,103 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>108700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>116800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>117500</v>
+      </c>
+      <c r="G76" s="3">
         <v>120800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>127900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>134200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>133300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>122200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>101800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>97900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>52400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>17000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>15100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>11400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>13600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>11400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>4000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-3500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>2200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>13500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>17300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>10800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6193,194 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>29600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>7900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-3400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-11400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,52 +6408,55 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
       </c>
       <c r="M83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N83" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
       </c>
       <c r="P83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R83" s="3">
         <v>700</v>
@@ -5869,31 +6465,40 @@
         <v>700</v>
       </c>
       <c r="T83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="U83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="W83" s="3">
         <v>600</v>
       </c>
       <c r="X83" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AB83" s="3">
         <v>300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AC83" s="3">
         <v>300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AD83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6574,17 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6660,17 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6746,17 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6832,17 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6918,103 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-7300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>4400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>12700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AC89" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AD89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +7042,97 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-7500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Y91" s="3">
         <v>-4500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Z91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="AA91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AB91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AC91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AD91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +7208,17 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7294,103 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>9400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-29800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="X94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
         <v>-4500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Z94" s="3">
         <v>-10100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="AA94" s="3">
         <v>800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AB94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AC94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AD94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7418,11 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7498,17 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7584,17 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7670,17 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7756,271 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G100" s="3">
         <v>7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-14100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>65300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>28200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>3100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>2600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Z100" s="3">
         <v>-1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AB100" s="3">
         <v>6700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AC100" s="3">
         <v>5400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AD100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>300</v>
-      </c>
       <c r="K101" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>300</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O101" s="3">
+        <v>300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>-900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>10700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-34800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-29100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>60800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>12800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-1200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>CBAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>42400</v>
+        <v>63400</v>
       </c>
       <c r="E8" s="3">
         <v>42400</v>
       </c>
       <c r="F8" s="3">
+        <v>42400</v>
+      </c>
+      <c r="G8" s="3">
         <v>54500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>57700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>30600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>17800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E9" s="3">
         <v>37900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>50200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>74500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>37500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
-      </c>
-      <c r="T10" s="3">
-        <v>-200</v>
       </c>
       <c r="U10" s="3">
         <v>-200</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>-1800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,55 +1087,56 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>500</v>
       </c>
       <c r="O12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
       </c>
       <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>500</v>
       </c>
       <c r="S12" s="3">
         <v>500</v>
@@ -1131,37 +1145,40 @@
         <v>500</v>
       </c>
       <c r="U12" s="3">
+        <v>500</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>800</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>400</v>
       </c>
       <c r="AA12" s="3">
         <v>400</v>
       </c>
       <c r="AB12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC12" s="3">
         <v>500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1246,58 +1263,61 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1305,11 +1325,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>900</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1317,11 +1337,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1403,8 +1426,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>10</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>10</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E17" s="3">
         <v>46200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>41900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,58 +1684,59 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-300</v>
       </c>
       <c r="P20" s="3">
         <v>-300</v>
       </c>
       <c r="Q20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-300</v>
@@ -1714,117 +1748,123 @@
         <v>-300</v>
       </c>
       <c r="W20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-100</v>
       </c>
       <c r="AB20" s="3">
         <v>-100</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,94 +1949,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>20000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2004,26 +2050,26 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -2079,10 +2125,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>29600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2496,8 +2557,8 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2508,11 +2569,14 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,58 +2750,61 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>300</v>
       </c>
       <c r="P32" s="3">
         <v>300</v>
       </c>
       <c r="Q32" s="3">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>300</v>
@@ -2746,117 +2816,123 @@
         <v>300</v>
       </c>
       <c r="W32" s="3">
+        <v>300</v>
+      </c>
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>100</v>
       </c>
       <c r="AB32" s="3">
         <v>100</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3279,17 +3369,17 @@
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -3298,16 +3388,16 @@
         <v>800</v>
       </c>
       <c r="L42" s="3">
+        <v>800</v>
+      </c>
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -3324,8 +3414,8 @@
       <c r="T42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3354,390 +3444,405 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E43" s="3">
         <v>34100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>60500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>28600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>31800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>44300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>57500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>30600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>10200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>6000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E44" s="3">
         <v>41800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>50800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>49400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>52700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>55300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>18200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>16800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>17300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>16500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E45" s="3">
         <v>41000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>25500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>17800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>11700</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>11500</v>
       </c>
       <c r="AD45" s="3">
         <v>11500</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E46" s="3">
         <v>120400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>130000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>125700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>129200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>137300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>140000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>122800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>93400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>42100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>50400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>56400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>64000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>63700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>75000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>85200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>58600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>40500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>35200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1200</v>
       </c>
       <c r="H47" s="3">
         <v>1200</v>
       </c>
       <c r="I47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>900</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -3754,8 +3859,8 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3784,121 +3889,127 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E48" s="3">
         <v>126700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>113600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>132300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>133200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>67400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>64900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>65900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>67100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>61400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>64300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>65400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>63900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>60800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>64300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>65700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>60000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>57300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>55800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>54500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>53100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
@@ -3921,43 +4032,46 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>6900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,40 +4245,43 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
@@ -4175,8 +4295,8 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>252200</v>
+        <v>286800</v>
       </c>
       <c r="E54" s="3">
         <v>252200</v>
       </c>
       <c r="F54" s="3">
+        <v>252200</v>
+      </c>
+      <c r="G54" s="3">
         <v>244000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>251200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>270000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>262600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>190700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>192200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>204000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>142800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>94200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>110400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>118300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>123200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>127600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>132200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>135700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>148800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>153100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>123700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>104000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>97300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>93300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,352 +4580,365 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E57" s="3">
         <v>75600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>67500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>70500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>80500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>52600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>61300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>57200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>60400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>65800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>35100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>19200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>14900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E58" s="3">
         <v>27300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>20200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>23800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>20600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>21000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>14600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>13300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>14800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>17500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E59" s="3">
         <v>29000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>28700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>36500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>31300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>22800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>24600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>22900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E60" s="3">
         <v>131900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>121600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>111900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>115900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>112800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>89300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>73700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>59000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>76400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>88700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>85100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>92900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>96000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>106900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>113700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>116900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>79700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>56800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>57000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4839,135 +4982,141 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>20600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>20200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>19100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>18700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>18400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7700</v>
       </c>
       <c r="G62" s="3">
         <v>7700</v>
       </c>
       <c r="H62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I62" s="3">
         <v>8300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>13100</v>
       </c>
       <c r="Q62" s="3">
         <v>13100</v>
       </c>
       <c r="R62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S62" s="3">
         <v>13400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>11100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E66" s="3">
         <v>143500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>135400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>130400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>142100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>144600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>129300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>85100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>77300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>82800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>82000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>99000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>120300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>127300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>128200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>139200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>149000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>150900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>110100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>86700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>86500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-134700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-132100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-130700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-120000</v>
       </c>
       <c r="H72" s="3">
         <v>-120000</v>
       </c>
       <c r="I72" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-120800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-121300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-130400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-153100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-182800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-178500</v>
       </c>
       <c r="P72" s="3">
         <v>-178500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-178500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-177300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-174900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-171100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-169300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-167000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-164200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-160300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-168200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-164800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-162200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-150800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-146600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-142800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E76" s="3">
         <v>108700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>117500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>127900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>134200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>133300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>97900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6420,46 +6619,46 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
       </c>
       <c r="N83" s="3">
+        <v>700</v>
+      </c>
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>600</v>
       </c>
       <c r="Q83" s="3">
         <v>600</v>
       </c>
       <c r="R83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S83" s="3">
         <v>700</v>
@@ -6474,22 +6673,22 @@
         <v>700</v>
       </c>
       <c r="W83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="X83" s="3">
         <v>600</v>
       </c>
       <c r="Y83" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>400</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>300</v>
       </c>
       <c r="AC83" s="3">
         <v>300</v>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>12700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3600</v>
       </c>
       <c r="H94" s="3">
         <v>-3600</v>
       </c>
       <c r="I94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E100" s="3">
         <v>9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>65300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>28200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>6700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>5400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>300</v>
       </c>
       <c r="N101" s="3">
+        <v>300</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>60800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1500</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-1200</v>
       </c>
     </row>
